--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3852.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3852.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.230660965386247</v>
+        <v>3.474368810653687</v>
       </c>
       <c r="B1">
-        <v>2.497934844250057</v>
+        <v>6.31640100479126</v>
       </c>
       <c r="C1">
-        <v>4.191246832728242</v>
+        <v>5.840932846069336</v>
       </c>
       <c r="D1">
-        <v>3.44281008610126</v>
+        <v>6.688359260559082</v>
       </c>
       <c r="E1">
-        <v>1.156533532954293</v>
+        <v>3.737930536270142</v>
       </c>
     </row>
   </sheetData>
